--- a/钱包/钱包需求文档1.1_20180613.xlsx
+++ b/钱包/钱包需求文档1.1_20180613.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\杨宁波\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqf\Documents\GitHub\DailyNote\钱包\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A569F3F-2A6A-412F-8BEA-DA6DBD6F93E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14796"/>
   </bookViews>
   <sheets>
     <sheet name="项目方案" sheetId="1" r:id="rId1"/>
@@ -136,18 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1、显示转账和收款消息列表
-2、点击消息进入交易详情页
-3、批量标记消息为已读</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、显示活动通知列表
-2、点击通知进入通知详情页
-3、批量标记通知为已读</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>显示帮助信息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -231,12 +218,54 @@
 6、为商家系统提供账户资金划转接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、显示转账和收款消息列表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、点击消息进入交易详情页
+3、批量标记消息为已读</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、显示活动通知列表
+2、点击通知进入通知详情页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3、批量标记通知为已读</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -287,6 +316,13 @@
     <font>
       <sz val="28"/>
       <color theme="2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -745,11 +781,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -764,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="58.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -789,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -838,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
@@ -881,10 +917,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
@@ -892,10 +928,10 @@
     <row r="12" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="9"/>
@@ -908,7 +944,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="9"/>
@@ -919,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="9"/>
@@ -930,7 +966,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="9"/>
@@ -941,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="9"/>
@@ -952,7 +988,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="9"/>
@@ -973,7 +1009,7 @@
     </row>
     <row r="20" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -995,22 +1031,22 @@
     </row>
     <row r="22" spans="1:5" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="9"/>
@@ -1021,18 +1057,18 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="9"/>

--- a/钱包/钱包需求文档1.1_20180613.xlsx
+++ b/钱包/钱包需求文档1.1_20180613.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqf\Documents\GitHub\DailyNote\钱包\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14796"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="项目方案" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">项目方案!$A$1:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -219,34 +214,21 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1、显示转账和收款消息列表
-</t>
-    </r>
+    <t>1、显示活动通知列表
+2、点击通知进入通知详情页
+3、批量标记通知为已读</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2、点击消息进入交易详情页
-3、批量标记消息为已读</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、显示活动通知列表
-2、点击通知进入通知详情页</t>
+      <t>1、显示转账和收款消息列表</t>
     </r>
     <r>
       <rPr>
@@ -256,7 +238,18 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-3、批量标记通知为已读</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、点击消息进入交易详情页
+3、批量标记消息为已读</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -264,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -322,7 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -420,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,6 +478,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -505,7 +567,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -781,24 +843,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="99.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="58.15" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -807,7 +869,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="38.25">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -816,7 +878,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -831,7 +893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="20.45" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -844,7 +906,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
@@ -855,7 +917,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20.45" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -866,7 +928,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20.45" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -879,7 +941,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="33">
       <c r="A8" s="15"/>
       <c r="B8" s="9" t="s">
         <v>5</v>
@@ -890,7 +952,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="66">
       <c r="A9" s="15"/>
       <c r="B9" s="9" t="s">
         <v>15</v>
@@ -901,7 +963,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20.45" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
         <v>16</v>
@@ -912,7 +974,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="20.45" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
@@ -925,7 +987,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20.45" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -936,7 +998,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20.45" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
@@ -949,29 +1011,29 @@
       <c r="D13" s="6"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="49.5">
       <c r="A14" s="15"/>
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="49.5">
       <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>46</v>
+      <c r="C15" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20.45" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="9" t="s">
         <v>23</v>
@@ -982,7 +1044,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="20.45" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
         <v>24</v>
@@ -993,21 +1055,21 @@
       <c r="D17" s="6"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="38.25">
       <c r="A20" s="12" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1078,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="99">
       <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
@@ -1040,7 +1102,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="49.5">
       <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
@@ -1051,7 +1113,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="33">
       <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1124,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21">
       <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
